--- a/Service.Catalog/wwwroot/layout/excel/catalog/CatalogoListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/catalog/CatalogoListado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPAXSIS-00\source\repos\LaboratorioRamos\Service.Catalog\wwwroot\layout\excel\reagent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPAXSIS-00\source\repos\LaboratorioRamos\Service.Catalog\wwwroot\layout\excel\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13134ED8-5700-416A-9CB3-E5D2012FE89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E7DA8-760C-41B7-9AF2-6C1A8E0A67F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="780" windowWidth="20730" windowHeight="11160" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reactivos" sheetId="1" r:id="rId1"/>
+    <sheet name="Catálogos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Reactivos" localSheetId="0">Reactivos!$A$4:$E$5</definedName>
+    <definedName name="Catalogos" localSheetId="0">Catálogos!$A$4:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Clave</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Clave Contaq</t>
-  </si>
-  <si>
-    <t>Nombre Contaq</t>
-  </si>
-  <si>
     <t>Activo</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
   </si>
   <si>
     <t>{{item.Nombre}}</t>
-  </si>
-  <si>
-    <t>{{item.ClaveSistema}}</t>
-  </si>
-  <si>
-    <t>{{item.NombreSistema}}</t>
   </si>
   <si>
     <t>{{item.Activo}}</t>
@@ -554,7 +542,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -581,28 +569,17 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
